--- a/medicine/Mort/Cimetière_de_l'Est_de_Minsk/Cimetière_de_l'Est_de_Minsk.xlsx
+++ b/medicine/Mort/Cimetière_de_l'Est_de_Minsk/Cimetière_de_l'Est_de_Minsk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_de_Minsk</t>
+          <t>Cimetière_de_l'Est_de_Minsk</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de l'Est (en russe: Восточное кладбище; biélorusse : Усходнія могілкі) est un cimetière situé à Minsk, la capitale de la Biélorussie[1]. Il s'étend sur 24 hectares[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de l'Est (en russe: Восточное кладбище; biélorusse : Усходнія могілкі) est un cimetière situé à Minsk, la capitale de la Biélorussie. Il s'étend sur 24 hectares.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_de_Minsk</t>
+          <t>Cimetière_de_l'Est_de_Minsk</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière a ouvert en 1952; il se trouvait à l'origine aux confins de la ville[3]. On y trouve à l'origine les tombes de personnalités de la République socialiste soviétique de Biélorussie, ainsi que des scientifiques et des figures éminentes de la culture[4],[5],[6],[7], et il a la réputation d'un cimetière d'élite et de nécropole de personnalités politiques. Le président Vladimir Poutine l'a visité officiellement en 2001, accompagné d'Alexandre Loukachenko[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière a ouvert en 1952; il se trouvait à l'origine aux confins de la ville. On y trouve à l'origine les tombes de personnalités de la République socialiste soviétique de Biélorussie, ainsi que des scientifiques et des figures éminentes de la culture et il a la réputation d'un cimetière d'élite et de nécropole de personnalités politiques. Le président Vladimir Poutine l'a visité officiellement en 2001, accompagné d'Alexandre Loukachenko.
 Le cimetière de l'Est abrite aussi des tombes communes de soldats tués pendant la Grande Guerre patriotique et l'on remarque un monument dédié aux victimes de la tragédie du métro Nemiga.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_de_Minsk</t>
+          <t>Cimetière_de_l'Est_de_Minsk</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Tombes remarquables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ouladzimir Karatkievitch (Vladimir Korotkievitch) (1930-1984), homme de lettres biélorusse et soviétique
 Piotr Macherov (1918-1980), Premier secrétaire du parti communiste de Biélorussie (1965-1980).
 Ianka Mawr (1883-1971), écrivain biélorusse et soviétique.
-Vladimir Mouliavine (1941-2003), musicien soviétique; sa tombe orné d'une sculpture est l'une des plus visitées[3].
+Vladimir Mouliavine (1941-2003), musicien soviétique; sa tombe orné d'une sculpture est l'une des plus visitées.
 Nikolaï Yeriomenko père (1926-2000) et fils (1949-2001), acteurs soviétiques et russes</t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_de_Minsk</t>
+          <t>Cimetière_de_l'Est_de_Minsk</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Visite de Vladimir Poutine et Alexandre Loukachenko, le 1er juin 2001. Le président Poutine fleurit la tombe des acteurs Nikolaï Yeriomenko, père et fils.
